--- a/Tasa de crecimiento ISE.xlsx
+++ b/Tasa de crecimiento ISE.xlsx
@@ -414,7 +414,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -446,10 +446,10 @@
         <v>1</v>
       </c>
       <c r="C2" s="5">
-        <v>8.1954296945933862</v>
+        <v>8.2209016068532321</v>
       </c>
       <c r="D2" s="5">
-        <v>7.8787020437048261</v>
+        <v>7.8621177036041452</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -460,10 +460,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="5">
-        <v>6.7244832655458708</v>
+        <v>6.7810066079136249</v>
       </c>
       <c r="D3" s="5">
-        <v>6.8760651623688958</v>
+        <v>6.9092927386580447</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -474,10 +474,10 @@
         <v>3</v>
       </c>
       <c r="C4" s="5">
-        <v>7.0357658349897889</v>
+        <v>7.046698130371837</v>
       </c>
       <c r="D4" s="5">
-        <v>6.7751125608182079</v>
+        <v>6.8155215507606535</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -488,10 +488,10 @@
         <v>4</v>
       </c>
       <c r="C5" s="5">
-        <v>10.29775797435542</v>
+        <v>10.20606447851064</v>
       </c>
       <c r="D5" s="5">
-        <v>9.939903943590382</v>
+        <v>9.8783424593941813</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -502,10 +502,10 @@
         <v>5</v>
       </c>
       <c r="C6" s="5">
-        <v>16.82062812238479</v>
+        <v>16.749181429864564</v>
       </c>
       <c r="D6" s="5">
-        <v>16.53055818721387</v>
+        <v>16.501431616572454</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -516,10 +516,10 @@
         <v>6</v>
       </c>
       <c r="C7" s="5">
-        <v>7.8146851410955946</v>
+        <v>7.6969682322367845</v>
       </c>
       <c r="D7" s="5">
-        <v>7.9316817956485304</v>
+        <v>7.8563066145439802</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -530,10 +530,10 @@
         <v>7</v>
       </c>
       <c r="C8" s="5">
-        <v>6.1943219626100756</v>
+        <v>6.0934182739527358</v>
       </c>
       <c r="D8" s="5">
-        <v>6.0799248835748472</v>
+        <v>6.029595334270061</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -544,10 +544,10 @@
         <v>8</v>
       </c>
       <c r="C9" s="5">
-        <v>8.7480072906122075</v>
+        <v>8.7632954885599474</v>
       </c>
       <c r="D9" s="5">
-        <v>8.6547841040755671</v>
+        <v>8.6620216046361964</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -558,10 +558,10 @@
         <v>9</v>
       </c>
       <c r="C10" s="5">
-        <v>4.2756426855891476</v>
+        <v>4.2577629852417687</v>
       </c>
       <c r="D10" s="5">
-        <v>4.31702848518833</v>
+        <v>4.2859051136112996</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -572,10 +572,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="5">
-        <v>3.6905475570902126</v>
+        <v>4.0329298017899475</v>
       </c>
       <c r="D11" s="5">
-        <v>3.5239889273538947</v>
+        <v>3.8727678556663756</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -586,10 +586,10 @@
         <v>11</v>
       </c>
       <c r="C12" s="5">
-        <v>-3.527541619534702E-2</v>
+        <v>6.5670439731022157E-2</v>
       </c>
       <c r="D12" s="5">
-        <v>3.6909262151757737E-2</v>
+        <v>6.0766128701153437E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -600,10 +600,10 @@
         <v>12</v>
       </c>
       <c r="C13" s="5">
-        <v>0.52927940015396757</v>
+        <v>0.40289723851800829</v>
       </c>
       <c r="D13" s="5">
-        <v>0.36577006497148601</v>
+        <v>0.15326958845389163</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -614,10 +614,10 @@
         <v>1</v>
       </c>
       <c r="C14" s="5">
-        <v>3.9143514299170334</v>
+        <v>4.0133093790674366</v>
       </c>
       <c r="D14" s="5">
-        <v>3.6397577550182731</v>
+        <v>3.7002304160166388</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -628,10 +628,10 @@
         <v>2</v>
       </c>
       <c r="C15" s="5">
-        <v>2.3590647694363724</v>
+        <v>2.3279651448868606</v>
       </c>
       <c r="D15" s="5">
-        <v>2.5198214589778902</v>
+        <v>2.4572303958377364</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -642,10 +642,10 @@
         <v>3</v>
       </c>
       <c r="C16" s="5">
-        <v>1.5529089249761938</v>
+        <v>1.2935121741539604</v>
       </c>
       <c r="D16" s="5">
-        <v>1.3593441688077159</v>
+        <v>1.1392567988185867</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -656,10 +656,10 @@
         <v>4</v>
       </c>
       <c r="C17" s="5">
-        <v>-0.51126382571274576</v>
+        <v>-0.6278503208487507</v>
       </c>
       <c r="D17" s="5">
-        <v>-0.73092792573295384</v>
+        <v>-0.8154799311982508</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
@@ -670,10 +670,10 @@
         <v>5</v>
       </c>
       <c r="C18" s="5">
-        <v>0.3529913069898214</v>
+        <v>0.20147552857893913</v>
       </c>
       <c r="D18" s="5">
-        <v>0.20895605963046573</v>
+        <v>9.6181311542675951E-2</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
@@ -684,10 +684,10 @@
         <v>6</v>
       </c>
       <c r="C19" s="5">
-        <v>2.3170400488794058</v>
+        <v>2.3502339308267182</v>
       </c>
       <c r="D19" s="5">
-        <v>2.4752776339088243</v>
+        <v>2.5465979842870761</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
@@ -698,10 +698,10 @@
         <v>7</v>
       </c>
       <c r="C20" s="5">
-        <v>0.54397988628487326</v>
+        <v>0.45451405172698855</v>
       </c>
       <c r="D20" s="5">
-        <v>0.56558672699545109</v>
+        <v>0.52759327694449176</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
@@ -712,10 +712,10 @@
         <v>8</v>
       </c>
       <c r="C21" s="5">
-        <v>0.41021666183328875</v>
+        <v>0.45866334249001284</v>
       </c>
       <c r="D21" s="5">
-        <v>0.38579495521362972</v>
+        <v>0.44250229588184248</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,10 +726,10 @@
         <v>9</v>
       </c>
       <c r="C22" s="5">
-        <v>-0.87468882386959024</v>
+        <v>-0.75173820514272904</v>
       </c>
       <c r="D22" s="5">
-        <v>-0.79557667389871223</v>
+        <v>-0.66639104517512693</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,10 +740,10 @@
         <v>10</v>
       </c>
       <c r="C23" s="5">
-        <v>-0.713785405151242</v>
+        <v>-0.96355598998823666</v>
       </c>
       <c r="D23" s="5">
-        <v>-0.70898235065057447</v>
+        <v>-0.96215403120771237</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
@@ -754,10 +754,10 @@
         <v>11</v>
       </c>
       <c r="C24" s="5">
-        <v>3.221053816242275</v>
+        <v>3.4959290485563628</v>
       </c>
       <c r="D24" s="5">
-        <v>3.4749372803918552</v>
+        <v>3.7017671901893854</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -768,10 +768,10 @@
         <v>12</v>
       </c>
       <c r="C25" s="5">
-        <v>0.71195647454732125</v>
+        <v>0.99075470316330438</v>
       </c>
       <c r="D25" s="5">
-        <v>0.74021654408421955</v>
+        <v>0.97698504128422725</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
@@ -782,10 +782,10 @@
         <v>1</v>
       </c>
       <c r="C26" s="5">
-        <v>1.6309114222313781</v>
+        <v>1.4078786715901401</v>
       </c>
       <c r="D26" s="5">
-        <v>1.5786517631904715</v>
+        <v>1.303491933098915</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,10 +796,10 @@
         <v>2</v>
       </c>
       <c r="C27" s="5">
-        <v>2.3806393406093918</v>
+        <v>2.2164220903035954</v>
       </c>
       <c r="D27" s="5">
-        <v>1.3847568515397559</v>
+        <v>1.2061821488673661</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -810,10 +810,10 @@
         <v>3</v>
       </c>
       <c r="C28" s="5">
-        <v>-1.9966951431085249</v>
+        <v>-1.9933777284598051</v>
       </c>
       <c r="D28" s="5">
-        <v>-0.38431502503559506</v>
+        <v>-0.32892870166251253</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
@@ -824,10 +824,10 @@
         <v>4</v>
       </c>
       <c r="C29" s="5">
-        <v>5.6071518666300761</v>
+        <v>5.4822674047459543</v>
       </c>
       <c r="D29" s="5">
-        <v>4.0240499747237681</v>
+        <v>3.9400315300022424</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
@@ -838,10 +838,10 @@
         <v>5</v>
       </c>
       <c r="C30" s="5">
-        <v>2.2837020487558561</v>
+        <v>2.1191381047576101</v>
       </c>
       <c r="D30" s="5">
-        <v>2.3678131924984811</v>
+        <v>2.2375513928150266</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
@@ -852,10 +852,10 @@
         <v>6</v>
       </c>
       <c r="C31" s="5">
-        <v>-1.3986958529335141</v>
+        <v>-1.7754502114673301</v>
       </c>
       <c r="D31" s="5">
-        <v>-1.1969243785172894</v>
+        <v>-1.544633378362716</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
@@ -866,10 +866,10 @@
         <v>7</v>
       </c>
       <c r="C32" s="5">
-        <v>3.5193259649030466</v>
+        <v>3.099677905676046</v>
       </c>
       <c r="D32" s="5">
-        <v>3.6825654978263422</v>
+        <v>3.3035658812358983</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
@@ -880,10 +880,10 @@
         <v>8</v>
       </c>
       <c r="C33" s="5">
-        <v>1.8661401048329225</v>
+        <v>1.4254568962590355</v>
       </c>
       <c r="D33" s="5">
-        <v>1.929241808488726</v>
+        <v>1.4884011723839006</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
@@ -894,10 +894,10 @@
         <v>9</v>
       </c>
       <c r="C34" s="5">
-        <v>1.0390078764771999</v>
+        <v>0.72681182773624187</v>
       </c>
       <c r="D34" s="5">
-        <v>1.1803754747123534</v>
+        <v>0.88193096996341991</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -908,10 +908,10 @@
         <v>10</v>
       </c>
       <c r="C35" s="5">
-        <v>3.6635627851098036</v>
+        <v>3.5950517110826752</v>
       </c>
       <c r="D35" s="5">
-        <v>3.755530721803523</v>
+        <v>3.6978838781288199</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
@@ -922,10 +922,10 @@
         <v>11</v>
       </c>
       <c r="C36" s="5">
-        <v>0.44433027144256698</v>
+        <v>0.34022838023032875</v>
       </c>
       <c r="D36" s="5">
-        <v>0.64512931234822668</v>
+        <v>0.49058632363154264</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
@@ -936,10 +936,124 @@
         <v>12</v>
       </c>
       <c r="C37" s="5">
-        <v>2.9474751462709321</v>
+        <v>3.3813128562042039</v>
       </c>
       <c r="D37" s="5">
-        <v>2.9378976049170098</v>
+        <v>3.3426848683490498</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1</v>
+      </c>
+      <c r="C38" s="5">
+        <v>2.2628510165165494</v>
+      </c>
+      <c r="D38" s="5">
+        <v>2.1114361421628867</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B39" s="4">
+        <v>2</v>
+      </c>
+      <c r="C39" s="5">
+        <v>1.397693176037663</v>
+      </c>
+      <c r="D39" s="5">
+        <v>2.5873800535206817</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B40" s="4">
+        <v>3</v>
+      </c>
+      <c r="C40" s="5">
+        <v>4.5190885063035324</v>
+      </c>
+      <c r="D40" s="5">
+        <v>2.8610795642419808</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B41" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B42" s="4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B43" s="4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B44" s="4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B45" s="4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B46" s="4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B47" s="4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B48" s="4">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>2025</v>
+      </c>
+      <c r="B49" s="4">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
